--- a/similarities/split_global/harmonic_similarity_timestamps_290.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_290.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Eb', 'F', 'Bb'], ['Eb', 'Bb', 'F']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D'], ['G', 'D', 'A']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:42.305079', '0:00:48.272607'), ('0:00:29.719863', '0:00:35.722222')]</t>
+          <t>('0:00:09.162102', '0:00:15.791400')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:44.836000', '0:00:49.319000'), ('0:00:05.734000', '0:00:08.399000')]</t>
+          <t>('0:01:57.540000', '0:02:02.700000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=42.305079', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=44.836', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=5.734']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/D#', 'D#/G', 'C:min/G'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E', 'A:min'], ['A:min', 'C', 'A:min'], ['A:min', 'D:min', 'A:min']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000'), ('0:01:04.280000', '0:01:07.880000'), ('0:00:07.620000', '0:00:11.120000')]</t>
+          <t>('0:00:45.580000', '0:00:49.600000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.824000', '0:00:20.865000'), ('0:00:16.840000', '0:00:26.811000'), ('0:00:35.888000', '0:00:38.359000')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=64.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=7.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=16.84', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=35.888']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['Db:maj', 'Ab/3', 'Eb:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:01:02.420000', '0:01:04.140000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:00:13.159000', '0:00:16.555000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=62.42</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=13.159</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min'], ['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:07.300000'), ('0:02:10.840000', '0:02:15.980000'), ('0:00:37.940000', '0:00:42.840000')]</t>
+          <t>('0:01:14.100000', '0:01:20.040000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000'), ('0:00:38.900000', '0:00:44.360000')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=37.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=38.9']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:01:28.583470', '0:01:38.974002')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:06.930000', '0:01:23.820000')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db:7']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:56.020000', '0:00:59.320000')]</t>
+          <t>('0:00:00.279000', '0:00:16.531000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:14.380000', '0:01:28.500000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=56.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=74.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C/3', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48'), ('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000'), ('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:01:16.585782', '0:01:18.064810')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:7']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:09.820000', '0:00:17.090000')]</t>
+          <t>('0:01:27.680000', '0:01:38.020000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:16.540000', '0:00:34.340000')]</t>
+          <t>('0:00:28.800000', '0:00:36.860000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=9.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=87.68</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=16.54']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=28.8</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7', 'A#:maj', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/B', 'F:maj/A', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['D', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:02.020000', '0:00:15.900000')]</t>
+          <t>('0:00:28.180000', '0:00:30.620000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:01.420000', '0:01:14.480000')]</t>
+          <t>('0:00:34.416000', '0:00:41.151000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=2.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=28.18</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=61.42']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-10#t=34.416</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:01.600000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.560000', '0:00:21.800000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A#:7', 'D#:maj', 'D#:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['Ab:7', 'Db', 'Db:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:01:05.780000', '0:01:17.760000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:04.155032', '0:00:07.525011')]</t>
+          <t>('0:00:56.020000', '0:00:59.320000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.78</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=4.155032']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=56.02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['A', 'D', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:00:40.490000', '0:00:51.380000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:01:22.290863', '0:01:38.974002')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:32.400000', '0:00:44.110000')]</t>
+          <t>('0:00:05.940000', '0:00:25.280000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+          <t>('0:00:49', '0:00:56.800000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=5.94</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=49.0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:15.530000', '0:00:16.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
